--- a/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>347.7291259765625</v>
+        <v>358.5101013183594</v>
       </c>
     </row>
     <row r="43">
@@ -825,7 +825,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>370.4339599609375</v>
+        <v>370.78076171875</v>
       </c>
     </row>
     <row r="44">
@@ -834,7 +834,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>393.4328002929688</v>
+        <v>384.7572937011719</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>416.4624633789062</v>
+        <v>402.3172607421875</v>
       </c>
     </row>
     <row r="46">
@@ -852,7 +852,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>440.2887268066406</v>
+        <v>426.7821350097656</v>
       </c>
     </row>
     <row r="47">
@@ -978,7 +978,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1445.010375976562</v>
+        <v>1435.845703125</v>
       </c>
     </row>
     <row r="61">
@@ -987,7 +987,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1458.05908203125</v>
+        <v>1479.185180664062</v>
       </c>
     </row>
     <row r="62">
@@ -996,7 +996,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1457.76708984375</v>
+        <v>1521.790771484375</v>
       </c>
     </row>
     <row r="63">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1363.012329101562</v>
+        <v>1563.89111328125</v>
       </c>
     </row>
     <row r="64">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1345.2333984375</v>
+        <v>1605.94873046875</v>
       </c>
     </row>
     <row r="65">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1333.992065429688</v>
+        <v>1647.932373046875</v>
       </c>
     </row>
     <row r="66">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>1302.73095703125</v>
+        <v>1689.066162109375</v>
       </c>
     </row>
     <row r="67">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>1266.689453125</v>
+        <v>1729.463623046875</v>
       </c>
     </row>
     <row r="68">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>1231.779052734375</v>
+        <v>1769.72607421875</v>
       </c>
     </row>
     <row r="69">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>1069.40234375</v>
+        <v>1810.0654296875</v>
       </c>
     </row>
     <row r="70">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>705.8145751953125</v>
+        <v>1850.271240234375</v>
       </c>
     </row>
     <row r="71">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>431.5226135253906</v>
+        <v>1890.297119140625</v>
       </c>
     </row>
     <row r="72">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>281.8277893066406</v>
+        <v>1930.19091796875</v>
       </c>
     </row>
     <row r="73">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>112.0985717773438</v>
+        <v>1969.828857421875</v>
       </c>
     </row>
     <row r="74">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>0</v>
+        <v>2009.598388671875</v>
       </c>
     </row>
   </sheetData>

--- a/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>358.5101013183594</v>
+        <v>359.9470520019531</v>
       </c>
     </row>
     <row r="43">
@@ -825,7 +825,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>370.78076171875</v>
+        <v>376.8268432617188</v>
       </c>
     </row>
     <row r="44">
@@ -834,7 +834,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>384.7572937011719</v>
+        <v>396.981201171875</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>402.3172607421875</v>
+        <v>420.7916259765625</v>
       </c>
     </row>
     <row r="46">
@@ -852,7 +852,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>426.7821350097656</v>
+        <v>447.1544189453125</v>
       </c>
     </row>
     <row r="47">
@@ -978,7 +978,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1435.845703125</v>
+        <v>1412.107666015625</v>
       </c>
     </row>
     <row r="61">
@@ -987,7 +987,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1479.185180664062</v>
+        <v>1449.414794921875</v>
       </c>
     </row>
     <row r="62">
@@ -996,7 +996,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1521.790771484375</v>
+        <v>1487.260986328125</v>
       </c>
     </row>
     <row r="63">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1563.89111328125</v>
+        <v>1525.09423828125</v>
       </c>
     </row>
     <row r="64">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1605.94873046875</v>
+        <v>1562.606201171875</v>
       </c>
     </row>
     <row r="65">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1647.932373046875</v>
+        <v>1600.1181640625</v>
       </c>
     </row>
     <row r="66">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>1689.066162109375</v>
+        <v>1637.63037109375</v>
       </c>
     </row>
     <row r="67">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>1729.463623046875</v>
+        <v>1675.142578125</v>
       </c>
     </row>
     <row r="68">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>1769.72607421875</v>
+        <v>1712.625</v>
       </c>
     </row>
     <row r="69">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>1810.0654296875</v>
+        <v>1750.107421875</v>
       </c>
     </row>
     <row r="70">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>1850.271240234375</v>
+        <v>1787.58984375</v>
       </c>
     </row>
     <row r="71">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>1890.297119140625</v>
+        <v>1823.551513671875</v>
       </c>
     </row>
     <row r="72">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>1930.19091796875</v>
+        <v>1859.31005859375</v>
       </c>
     </row>
     <row r="73">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>1969.828857421875</v>
+        <v>1895.080078125</v>
       </c>
     </row>
     <row r="74">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>2009.598388671875</v>
+        <v>1930.849853515625</v>
       </c>
     </row>
   </sheetData>

--- a/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>139.2855224609375</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>133.4273986816406</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>127.5987854003906</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>117.3512268066406</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>106.7940368652344</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>93.06124877929688</v>
       </c>
     </row>
     <row r="8">
@@ -816,7 +816,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>359.9470520019531</v>
+        <v>342.3902893066406</v>
       </c>
     </row>
     <row r="43">
@@ -825,7 +825,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>376.8268432617188</v>
+        <v>366.8025817871094</v>
       </c>
     </row>
     <row r="44">
@@ -834,7 +834,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>396.981201171875</v>
+        <v>391.1450805664062</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>420.7916259765625</v>
+        <v>415.9763488769531</v>
       </c>
     </row>
     <row r="46">
@@ -852,7 +852,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>447.1544189453125</v>
+        <v>441.3667907714844</v>
       </c>
     </row>
     <row r="47">
@@ -978,7 +978,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1412.107666015625</v>
+        <v>1433.693603515625</v>
       </c>
     </row>
     <row r="61">
@@ -987,7 +987,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1449.414794921875</v>
+        <v>1503.9775390625</v>
       </c>
     </row>
     <row r="62">
@@ -996,7 +996,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1487.260986328125</v>
+        <v>1596.976318359375</v>
       </c>
     </row>
     <row r="63">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1525.09423828125</v>
+        <v>1687.55517578125</v>
       </c>
     </row>
     <row r="64">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1562.606201171875</v>
+        <v>1781.550048828125</v>
       </c>
     </row>
     <row r="65">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1600.1181640625</v>
+        <v>1885.03076171875</v>
       </c>
     </row>
     <row r="66">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>1637.63037109375</v>
+        <v>1988.1904296875</v>
       </c>
     </row>
     <row r="67">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>1675.142578125</v>
+        <v>2091.350830078125</v>
       </c>
     </row>
     <row r="68">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>1712.625</v>
+        <v>2195.066650390625</v>
       </c>
     </row>
     <row r="69">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>1750.107421875</v>
+        <v>2305.967529296875</v>
       </c>
     </row>
     <row r="70">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>1787.58984375</v>
+        <v>2421.873779296875</v>
       </c>
     </row>
     <row r="71">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>1823.551513671875</v>
+        <v>2537.160400390625</v>
       </c>
     </row>
     <row r="72">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>1859.31005859375</v>
+        <v>2652.330810546875</v>
       </c>
     </row>
     <row r="73">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>1895.080078125</v>
+        <v>2767.63330078125</v>
       </c>
     </row>
     <row r="74">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>1930.849853515625</v>
+        <v>2882.952392578125</v>
       </c>
     </row>
   </sheetData>

--- a/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
@@ -456,7 +456,7 @@
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>139.2855224609375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>133.4273986816406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>127.5987854003906</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +483,7 @@
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>117.3512268066406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>106.7940368652344</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -501,7 +501,7 @@
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>93.06124877929688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -816,7 +816,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>342.3902893066406</v>
+        <v>352.6300964355469</v>
       </c>
     </row>
     <row r="43">
@@ -825,7 +825,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>366.8025817871094</v>
+        <v>376.192626953125</v>
       </c>
     </row>
     <row r="44">
@@ -834,7 +834,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>391.1450805664062</v>
+        <v>403.1024475097656</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>415.9763488769531</v>
+        <v>432.8856811523438</v>
       </c>
     </row>
     <row r="46">
@@ -852,7 +852,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>441.3667907714844</v>
+        <v>464.4331665039062</v>
       </c>
     </row>
     <row r="47">
@@ -978,7 +978,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1433.693603515625</v>
+        <v>1568.46826171875</v>
       </c>
     </row>
     <row r="61">
@@ -987,7 +987,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1503.9775390625</v>
+        <v>1645.664794921875</v>
       </c>
     </row>
     <row r="62">
@@ -996,7 +996,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1596.976318359375</v>
+        <v>1721.800048828125</v>
       </c>
     </row>
     <row r="63">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1687.55517578125</v>
+        <v>1797.22412109375</v>
       </c>
     </row>
     <row r="64">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1781.550048828125</v>
+        <v>1870.81298828125</v>
       </c>
     </row>
     <row r="65">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1885.03076171875</v>
+        <v>1943.886962890625</v>
       </c>
     </row>
     <row r="66">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>1988.1904296875</v>
+        <v>2016.9609375</v>
       </c>
     </row>
     <row r="67">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2091.350830078125</v>
+        <v>2090.035400390625</v>
       </c>
     </row>
     <row r="68">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2195.066650390625</v>
+        <v>2161.71142578125</v>
       </c>
     </row>
     <row r="69">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2305.967529296875</v>
+        <v>2233.072021484375</v>
       </c>
     </row>
     <row r="70">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>2421.873779296875</v>
+        <v>2304.5693359375</v>
       </c>
     </row>
     <row r="71">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>2537.160400390625</v>
+        <v>2376.28369140625</v>
       </c>
     </row>
     <row r="72">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>2652.330810546875</v>
+        <v>2447.696044921875</v>
       </c>
     </row>
     <row r="73">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>2767.63330078125</v>
+        <v>2518.88232421875</v>
       </c>
     </row>
     <row r="74">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>2882.952392578125</v>
+        <v>2589.9560546875</v>
       </c>
     </row>
   </sheetData>

--- a/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
+++ b/DataFrame_reconstruido/Total_Moluscos_reconstruido.xlsx
@@ -816,7 +816,7 @@
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>352.6300964355469</v>
+        <v>350.2930908203125</v>
       </c>
     </row>
     <row r="43">
@@ -825,7 +825,7 @@
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>376.192626953125</v>
+        <v>372.7078247070312</v>
       </c>
     </row>
     <row r="44">
@@ -834,7 +834,7 @@
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>403.1024475097656</v>
+        <v>396.8110961914062</v>
       </c>
     </row>
     <row r="45">
@@ -843,7 +843,7 @@
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>432.8856811523438</v>
+        <v>425.9117431640625</v>
       </c>
     </row>
     <row r="46">
@@ -852,7 +852,7 @@
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>464.4331665039062</v>
+        <v>457.2794494628906</v>
       </c>
     </row>
     <row r="47">
@@ -978,7 +978,7 @@
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1568.46826171875</v>
+        <v>1573.86083984375</v>
       </c>
     </row>
     <row r="61">
@@ -987,7 +987,7 @@
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1645.664794921875</v>
+        <v>1662.3515625</v>
       </c>
     </row>
     <row r="62">
@@ -996,7 +996,7 @@
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>1721.800048828125</v>
+        <v>1754.8623046875</v>
       </c>
     </row>
     <row r="63">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>1797.22412109375</v>
+        <v>1845.6025390625</v>
       </c>
     </row>
     <row r="64">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>1870.81298828125</v>
+        <v>1938.82568359375</v>
       </c>
     </row>
     <row r="65">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>1943.886962890625</v>
+        <v>2032.114013671875</v>
       </c>
     </row>
     <row r="66">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>2016.9609375</v>
+        <v>2126.29638671875</v>
       </c>
     </row>
     <row r="67">
@@ -1041,7 +1041,7 @@
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>2090.035400390625</v>
+        <v>2220.203369140625</v>
       </c>
     </row>
     <row r="68">
@@ -1050,7 +1050,7 @@
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>2161.71142578125</v>
+        <v>2312.41259765625</v>
       </c>
     </row>
     <row r="69">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>2233.072021484375</v>
+        <v>2404.295654296875</v>
       </c>
     </row>
     <row r="70">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>2304.5693359375</v>
+        <v>2495.57373046875</v>
       </c>
     </row>
     <row r="71">
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>2376.28369140625</v>
+        <v>2587.17578125</v>
       </c>
     </row>
     <row r="72">
@@ -1086,7 +1086,7 @@
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>2447.696044921875</v>
+        <v>2680.941162109375</v>
       </c>
     </row>
     <row r="73">
@@ -1095,7 +1095,7 @@
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>2518.88232421875</v>
+        <v>2774.706298828125</v>
       </c>
     </row>
     <row r="74">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>2589.9560546875</v>
+        <v>2868.20263671875</v>
       </c>
     </row>
   </sheetData>
